--- a/5-Software Service Catalog -SS/Forms/Bugs Log Form - F8.xlsx
+++ b/5-Software Service Catalog -SS/Forms/Bugs Log Form - F8.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\5-Software Service Catalog -SS\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\1-Software Development Lifecycle\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9C1FC7-921B-47E3-A10A-ABBC86D58002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BC1618-8387-4E64-8937-81C38F9E4EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1935" windowWidth="15375" windowHeight="7875" xr2:uid="{A167D0FB-4EF4-425F-B68B-513D822F74CD}"/>
+    <workbookView xWindow="20370" yWindow="-2595" windowWidth="29040" windowHeight="15840" xr2:uid="{A167D0FB-4EF4-425F-B68B-513D822F74CD}"/>
   </bookViews>
   <sheets>
-    <sheet name="S-SW-SC-08" sheetId="1" r:id="rId1"/>
+    <sheet name="F-SW-SD-08" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AF6C1DE-F2C6-432A-9CC3-6C346BD042E6}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,7 +882,7 @@
   <pageMargins left="0.7" right="0.7" top="0.5" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;14Issue No.:(01)&amp;C&amp;14F-SW-SD/08&amp;R&amp;14Rev : 0 (16/03/2025)</oddFooter>
+    <oddFooter>&amp;L&amp;14Issue No.:(01)&amp;C&amp;14F-SW-SD/08&amp;R&amp;14Rev : 0 (01/10/2025)</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <extLst>
